--- a/test_data/1990-21_K8130344.annotated.final_filtered(sorted).xlsx
+++ b/test_data/1990-21_K8130344.annotated.final_filtered(sorted).xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR11"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,48 +1457,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chr5</t>
+          <t>chr11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170837551</v>
+        <v>119149355</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GTGGAGG</t>
+          <t>TATGATGATGATGATGATGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GCTTATGGCCC</t>
+          <t>TATGATGATGATGATGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NPM1</t>
+          <t>CBL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c.868_873delinsCTTATGGCCC</t>
+          <t>c.1380_1382del</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>p.Trp290LeufsTer10</t>
+          <t>p.Asp460del</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.342007</v>
+        <v>0.0240469</v>
       </c>
       <c r="J5" t="n">
-        <v>1196</v>
+        <v>123</v>
       </c>
       <c r="K5" t="n">
-        <v>3497</v>
+        <v>5115</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1507,65 +1507,73 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>COSV51555426</t>
+          <t>COSV50629628</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
+          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>570415</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Uncertain significance</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>854</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138</v>
+        <v>2150</v>
       </c>
       <c r="AB5" t="n">
-        <v>1163</v>
+        <v>2842</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.54742408690555</v>
+        <v>0.743462343096234</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.69165669743211e-06</v>
+        <v>0.117022600826245</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.713689482470784</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.06994647850926e-51</v>
+        <v>0.0022264883473202</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC5" t="n">
-        <v>13.8208</v>
+        <v>1.09634</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.653569</v>
+        <v>0.5742</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>del</t>
         </is>
       </c>
       <c r="BH5" t="n">
-        <v>12082.8</v>
+        <v>1401.94</v>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
@@ -1574,28 +1582,33 @@
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>FSI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>ENST00000296930.9</t>
+          <t>ENST00000264033.6</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>{"NPM1": [["P06748", "p.Trp290LeufsTer10", "CSS,FSI", "ENST00000296930.9", "c.868_873delinsCTTATGGCCC"], ["P06748", "p.Trp261LeufsTer10", "CSS,FSI", "ENST00000351986.10", "c.781_786delinsCTTATGGCCC"], ["P06748", "p.Trp290LeufsTer10", "CSS,FSI", "ENST00000517671.5", "c.868_873delinsCTTATGGCCC"]]}</t>
+          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>rs397507494</t>
         </is>
       </c>
       <c r="BO5" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0491803278688524</v>
+        <v>0.688524590163934</v>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
+          <t>1002-23_N0137691; 1025-23_N0142753; 1064-23_N0140170; 109-21_K5077987; 126-22; 1507-20_J6242652; 1524-23_N107A567; 1622-21; 1776-21_K731B924; 1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8; 3042-22_M1199333; 312-23_M9135549; 3731-22_M2219248; 3899-22_LOD_1-8; 39-23_M9037298; 419-23_M9191198; 4514-22_M3277862; 50-22; 520-23_M9210972; 521-23_M9244872; 5331-21_L3219563; 5331-21_LOD_1-10; 5331-21_LOD_1-4</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
@@ -1607,48 +1620,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chr11</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119149355</v>
+        <v>74733162</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGATGA</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CBL</t>
+          <t>SRSF2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c.1380_1382del</t>
+          <t>c.81C&gt;T</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>p.Asp460del</t>
+          <t>p.Pro27=</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.0240469</v>
+        <v>0.494737</v>
       </c>
       <c r="J6" t="n">
-        <v>123</v>
+        <v>752</v>
       </c>
       <c r="K6" t="n">
-        <v>5115</v>
+        <v>1520</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1657,108 +1670,155 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>COSV50629628</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>570415</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Uncertain significance</t>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0.000265111</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Tolerated</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="Z6" t="n">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AA6" t="n">
-        <v>2150</v>
+        <v>366</v>
       </c>
       <c r="AB6" t="n">
-        <v>2842</v>
+        <v>402</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.743462343096234</v>
+        <v>1.0750355796806</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.117022600826245</v>
+        <v>0.504685954518346</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.36</v>
+        <v>0.494694960212201</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0022264883473202</v>
+        <v>0.798801443258598</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1466</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>363</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>363</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>353</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>370</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>380</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.4934</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.7428</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>370</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>380</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.4934</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.7428</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.6382</v>
       </c>
       <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>24.1795</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.509157</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>9188.209999999999</v>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>SYN</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>ENST00000359995.9</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>{"MFSD11": [["O43934", "", "2KU", "ENST00000336509.8", "c.-875G&gt;A"], ["O43934", "", "2KU", "ENST00000355954.7", "c.-1157G&gt;A"], ["O43934", "", "UT5", "ENST00000586622.5", "c.-83G&gt;A"], ["", "", "2KU,NMD", "ENST00000588031.5", "c.-1157G&gt;A"], ["O43934", "", "UT5", "ENST00000588460.5", "c.-1273G&gt;A"], ["", "", "2KU,NMD", "ENST00000588670.5", "c.-1273G&gt;A"], ["", "", "2KU", "ENST00000590393.1", "c.-1273G&gt;A"], ["O43934", "", "2KU", "ENST00000590514.5", "c.-1157G&gt;A"], ["", "", "UT5", "ENST00000591864.1", "c.-83G&gt;A"], ["O43934", "", "2KU", "ENST00000593181.5", "c.-968G&gt;A"], ["O43934", "", "UT5", "ENST00000621483.4", "c.-83G&gt;A"]], "MIR636": [["", "", "2KU,MIR", "ENST00000384825.1", ""]], "SRSF2": [["Q01130", "p.Pro27=", "SYN", "ENST00000359995.9", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "SYN", "ENST00000392485.2", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "NMD,SYN", "ENST00000452355.7", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "SYN", "ENST00000508921.7", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "NMD,SYN", "ENST00000585202.5", "c.81C&gt;T"]]}</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>rs140957080</t>
+        </is>
+      </c>
+      <c r="BO6" t="n">
         <v>3</v>
       </c>
-      <c r="BC6" t="n">
-        <v>1.09634</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.5742</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>del</t>
-        </is>
-      </c>
-      <c r="BH6" t="n">
-        <v>1401.94</v>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>ENST00000264033.6</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>rs397507494</t>
-        </is>
-      </c>
-      <c r="BO6" t="n">
-        <v>42</v>
-      </c>
       <c r="BP6" t="n">
-        <v>0.688524590163934</v>
+        <v>0.0491803278688524</v>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1002-23_N0137691; 1025-23_N0142753; 1064-23_N0140170; 109-21_K5077987; 126-22; 1507-20_J6242652; 1524-23_N107A567; 1622-21; 1776-21_K731B924; 1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8; 3042-22_M1199333; 312-23_M9135549; 3731-22_M2219248; 3899-22_LOD_1-8; 39-23_M9037298; 419-23_M9191198; 4514-22_M3277862; 50-22; 520-23_M9210972; 521-23_M9244872; 5331-21_L3219563; 5331-21_LOD_1-10; 5331-21_LOD_1-4</t>
+          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
@@ -1770,1006 +1830,188 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>chr13</t>
+          <t>chr21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48881259</v>
+        <v>36206900</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RB1</t>
+          <t>RUNX1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>c.138-157_138-156insT</t>
+          <t>c.614-2A&gt;C</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.00677048</v>
+        <v>0.161079</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K7" t="n">
-        <v>2954</v>
+        <v>2744</v>
       </c>
       <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NOCALL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>./.</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>6.048</v>
+      </c>
+      <c r="V7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>125</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>317</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1336</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>966</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.286575125950805</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.42458757700669e-06</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.283783783783783</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3.1795818967588e-20</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2286</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NOCALL</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>./.</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1688</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1246</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.58208576503425</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.364432815594509</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.681818181818181</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.133800506591796</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2887</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.9643</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>207</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="AX7" t="n">
         <v>0</v>
       </c>
-      <c r="AR7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.07140000000000001</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.7941</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.0008</v>
-      </c>
       <c r="AY7" t="n">
-        <v>3.8571</v>
+        <v>0.0144</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.3743</v>
+        <v>0.0283</v>
       </c>
       <c r="BB7" t="n">
         <v>1</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0973735</v>
+        <v>2.98616</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.63173</v>
+        <v>0.742777</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>ins</t>
+          <t>snp</t>
         </is>
       </c>
       <c r="BH7" t="n">
-        <v>71.9104</v>
+        <v>2048.51</v>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>SPL</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>ENST00000267163.5</t>
+          <t>ENST00000300305.7</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>{"RB1": [["P06400", "", "INT", "ENST00000267163.5", "c.138-157_138-156insT"], ["", "", "INT,NMD", "ENST00000467505.5", "c.137+3074_137+3075insT"], ["", "", "INT", "ENST00000646097.1", "c.138-157_138-156insT"], ["", "", "INT", "ENST00000650461.1", "c.138-157_138-156insT"]]}</t>
+          <t>{"AP000331.1": [["", "", "2KU,LNC", "ENST00000651798.1", ""]], "RUNX1": [["Q01196", "", "INT,SPL", "ENST00000300305.7", "c.614-2A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000344691.8", "c.533-2A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000358356.9", "c.533-2A&gt;C"], ["", "", "INT", "ENST00000399240.5", "c.532+24871A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000437180.5", "c.614-2A&gt;C"], ["", "", "INT,NMD,SPL", "ENST00000482318.5", "c.*204-2A&gt;C"]]}</t>
         </is>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BP7" t="n">
-        <v>0</v>
+        <v>0.114754098360655</v>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>126-22; 1622-21; 50-22; 6377-21; 7024-21_L608B767; 7179-21; 7424-21_L6296176</t>
+        </is>
       </c>
       <c r="BR7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>chr13</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>48916771</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RB1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>c.301A&gt;G</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>p.Ile101Val</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.499512</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3580</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7167</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>527922</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Uncertain significance</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>2.661</v>
-      </c>
-      <c r="V8" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Tolerated</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v>1728</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1852</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1763</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1824</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.965347912865452</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.463824753663541</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.482691233947515</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.0398501841057987</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6803</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1685</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1801</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.4834</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.0515</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.9356</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>1685</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1801</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.4834</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.0515</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.9356</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>22.0571</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.504416</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH8" t="n">
-        <v>39520.9</v>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>ENST00000267163.5</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>{"AL392048.1": [["", "", "2KU,LNC", "ENST00000613946.1", ""]], "RB1": [["P06400", "p.Ile101Val", "MIS", "ENST00000267163.5", "c.301A&gt;G"], ["", "", "INT,NMD", "ENST00000467505.5", "c.138-17382A&gt;G"], ["", "p.Ile101Val", "MIS", "ENST00000650461.1", "c.301A&gt;G"]]}</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>rs1555282783</t>
-        </is>
-      </c>
-      <c r="BO8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0.0491803278688524</v>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1577985</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PRPF8</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>c.3061-11T&gt;G</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.5015810000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1586</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3162</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>321895</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Benign</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0105789</v>
-      </c>
-      <c r="V9" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>624</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>962</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>606</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.03820775617108</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.609767143846347</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.393576826196473</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2.09166052501522e-17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3103</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>621</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>961</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.3927</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.6466</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>621</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>961</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.3927</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.6466</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>22.1865</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.504669</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH9" t="n">
-        <v>17538.5</v>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>ENST00000304992.11</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>{"PRPF8": [["Q6P2Q9", "", "INT", "ENST00000304992.11", "c.3061-11T&gt;G"], ["Q6P2Q9", "", "INT", "ENST00000572621.5", "c.3061-11T&gt;G"]]}</t>
-        </is>
-      </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>rs11652160</t>
-        </is>
-      </c>
-      <c r="BO9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0.0655737704918032</v>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>1002-23_N0137691; 1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>74733162</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SRSF2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>c.81C&gt;T</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>p.Pro27=</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.494737</v>
-      </c>
-      <c r="J10" t="n">
-        <v>752</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1520</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>0.000265111</v>
-      </c>
-      <c r="V10" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Tolerated</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>372</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>380</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>366</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>402</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.0750355796806</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.504685954518346</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.494694960212201</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.798801443258598</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1466</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>363</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>363</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>353</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>370</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>380</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.4934</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.7428</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>370</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>380</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0.4934</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0.7428</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0.6382</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>24.1795</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0.509157</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH10" t="n">
-        <v>9188.209999999999</v>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>SYN</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>ENST00000359995.9</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>{"MFSD11": [["O43934", "", "2KU", "ENST00000336509.8", "c.-875G&gt;A"], ["O43934", "", "2KU", "ENST00000355954.7", "c.-1157G&gt;A"], ["O43934", "", "UT5", "ENST00000586622.5", "c.-83G&gt;A"], ["", "", "2KU,NMD", "ENST00000588031.5", "c.-1157G&gt;A"], ["O43934", "", "UT5", "ENST00000588460.5", "c.-1273G&gt;A"], ["", "", "2KU,NMD", "ENST00000588670.5", "c.-1273G&gt;A"], ["", "", "2KU", "ENST00000590393.1", "c.-1273G&gt;A"], ["O43934", "", "2KU", "ENST00000590514.5", "c.-1157G&gt;A"], ["", "", "UT5", "ENST00000591864.1", "c.-83G&gt;A"], ["O43934", "", "2KU", "ENST00000593181.5", "c.-968G&gt;A"], ["O43934", "", "UT5", "ENST00000621483.4", "c.-83G&gt;A"]], "MIR636": [["", "", "2KU,MIR", "ENST00000384825.1", ""]], "SRSF2": [["Q01130", "p.Pro27=", "SYN", "ENST00000359995.9", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "SYN", "ENST00000392485.2", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "NMD,SYN", "ENST00000452355.7", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "SYN", "ENST00000508921.7", "c.81C&gt;T"], ["Q01130", "p.Pro27=", "NMD,SYN", "ENST00000585202.5", "c.81C&gt;T"]]}</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>rs140957080</t>
-        </is>
-      </c>
-      <c r="BO10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0.0491803278688524</v>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>chr21</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>36206900</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>RUNX1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>c.614-2A&gt;C</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.161079</v>
-      </c>
-      <c r="J11" t="n">
-        <v>442</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2744</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NOCALL</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>./.</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>6.048</v>
-      </c>
-      <c r="V11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>317</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1336</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>966</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.286575125950805</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.42458757700669e-06</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.283783783783783</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>3.1795818967588e-20</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2286</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>207</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0.0142</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.0283</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>2.98616</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0.742777</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH11" t="n">
-        <v>2048.51</v>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>SPL</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>ENST00000300305.7</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>{"AP000331.1": [["", "", "2KU,LNC", "ENST00000651798.1", ""]], "RUNX1": [["Q01196", "", "INT,SPL", "ENST00000300305.7", "c.614-2A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000344691.8", "c.533-2A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000358356.9", "c.533-2A&gt;C"], ["", "", "INT", "ENST00000399240.5", "c.532+24871A&gt;C"], ["Q01196", "", "INT,SPL", "ENST00000437180.5", "c.614-2A&gt;C"], ["", "", "INT,NMD,SPL", "ENST00000482318.5", "c.*204-2A&gt;C"]]}</t>
-        </is>
-      </c>
-      <c r="BO11" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0.114754098360655</v>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>126-22; 1622-21; 50-22; 6377-21; 7024-21_L608B767; 7179-21; 7424-21_L6296176</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2786,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3341,6 +2583,242 @@
         <v>0</v>
       </c>
       <c r="BR2" t="inlineStr">
+        <is>
+          <t>Harmful</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>chr12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>112926888</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PTPN11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c.1508G&gt;C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p.Gly503Ala</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00728332</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4119</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>COSV61004973</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[["haematopoietic and lymphoid tissue", 26]]</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>162464</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Pathogenic</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="V3" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Tolerated</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.695687170565783</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.360515918943509</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.377085587475448</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4085</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.3771</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.3771</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0427233</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.595262</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>43.9944</v>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>ENST00000351677.6</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>{"PTPN11": [["Q06124", "p.Gly503Ala", "MIS", "ENST00000351677.6", "c.1508G&gt;C"], ["Q06124", "p.Gly507Ala", "MIS", "ENST00000635625.1", "c.1520G&gt;C"]]}</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>rs397507546</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>1002-23_N0137691</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
         <is>
           <t>Harmful</t>
         </is>
@@ -3720,11 +3198,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chr12</t>
+          <t>chr13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112926888</v>
+        <v>48881259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3733,219 +3211,165 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PTPN11</t>
+          <t>RB1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c.1508G&gt;C</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>p.Gly503Ala</t>
+          <t>c.138-157_138-156insT</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.00728332</v>
+        <v>0.00677048</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>4119</v>
+        <v>2954</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NOCALL</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>./.</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>5.123</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1688</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1246</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.58208576503425</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.364432815594509</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.681818181818181</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.133800506591796</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2887</v>
+      </c>
+      <c r="AH2" t="n">
         <v>3</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>COSV61004973</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
         <v>26</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[["haematopoietic and lymphoid tissue", 26]]</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>162464</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Pathogenic</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>9.602</v>
-      </c>
-      <c r="V2" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Tolerated</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2026</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2060</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.695687170565783</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.360515918943509</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.377085587475448</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AO2" t="n">
         <v>0</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AP2" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.3771</v>
-      </c>
       <c r="AR2" t="n">
-        <v>0.6842</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.4062</v>
+        <v>0.7941</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.3771</v>
+        <v>0.0008</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.6842</v>
+        <v>3.8571</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>0.3743</v>
       </c>
       <c r="BB2" t="n">
         <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0427233</v>
+        <v>0.0973735</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.595262</v>
+        <v>0.63173</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.359</v>
+        <v>0.266</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>snp</t>
+          <t>ins</t>
         </is>
       </c>
       <c r="BH2" t="n">
-        <v>43.9944</v>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+        <v>71.9104</v>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>ENST00000351677.6</t>
+          <t>ENST00000267163.5</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>{"PTPN11": [["Q06124", "p.Gly503Ala", "MIS", "ENST00000351677.6", "c.1508G&gt;C"], ["Q06124", "p.Gly507Ala", "MIS", "ENST00000635625.1", "c.1520G&gt;C"]]}</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>rs397507546</t>
+          <t>{"RB1": [["P06400", "", "INT", "ENST00000267163.5", "c.138-157_138-156insT"], ["", "", "INT,NMD", "ENST00000467505.5", "c.137+3074_137+3075insT"], ["", "", "INT", "ENST00000646097.1", "c.138-157_138-156insT"], ["", "", "INT", "ENST00000650461.1", "c.138-157_138-156insT"]]}</t>
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0163934426229508</v>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>1002-23_N0137691</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
@@ -4195,6 +3619,860 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BR4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Original Input: Chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Original Input: Pos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Original Input: Reference allele</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Original Input: Alternate allele</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: Gene</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: cDNA change</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: Protein Change</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: RefSeq</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>VCF: AF</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>VCF: FAO</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>VCF: FDP</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>VCF: HRUN</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>VCF: Filter</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>VCF: Genotype</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>COSMIC: ID</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>COSMIC: Variant Count</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>COSMIC: Variant Count (Tissue)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ClinVar: ClinVar ID</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ClinVar: Clinical Significance</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>gnomAD3: Global AF</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>PhyloP: Vert Score</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>CADD: Phred</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>PolyPhen-2: HDIV Prediction</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>SIFT: Prediction</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>VCF: FSAF</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>VCF: FSAR</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>VCF: FSRF</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>VCF: FSRR</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>VCF: Fisher Odds Ratio</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>VCF: Fisher P Value</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>VCF: Binom Proportion</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>VCF: Binom P Value</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Read Depth</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Start Reads</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Stop Reads</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Reference Forward Read Depth</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Reference Reverse Read Depth</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Reference Forward Read Depth</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Reference Reverse Read Depth</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Forward Read Depth</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Reverse Read Depth</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Binomial Proportion</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Binomial P Value</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Fishers Odds Ratio</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered Variant Fishers P Value</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Filtered VAF</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Forward Read Depth</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Reverse Read Depth</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Binomial Proportion</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Binomial P Value</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Fishers Odds Ratio</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered Variant Fishers P Value</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>Mpileup Qual: Unfiltered VAF</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>VCF: LEN</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>VCF: QD</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>VCF: STB</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>VCF: STBP</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>VCF: SVTYPE</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>VCF: TYPE</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>VCF: QUAL</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: Coding</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: Sequence Ontology</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: Transcript</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>Variant Annotation: All Mappings</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>UniProt (GENE): Accession Number</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>dbSNP: rsID</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>MDL: Sample Count</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>MDL: Variant Frequency</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>MDL: Sample List</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>Disposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chr13</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>48916771</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RB1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c.301A&gt;G</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p.Ile101Val</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.499512</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3580</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7167</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>527922</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Uncertain significance</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="V2" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Tolerated</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>1728</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1852</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1763</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1824</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.965347912865452</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.463824753663541</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.482691233947515</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0398501841057987</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6803</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1685</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1801</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4834</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9356</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1685</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1801</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.4834</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9356</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>22.0571</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.504416</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>39520.9</v>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000267163.5</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"AL392048.1": [["", "", "2KU,LNC", "ENST00000613946.1", ""]], "RB1": [["P06400", "p.Ile101Val", "MIS", "ENST00000267163.5", "c.301A&gt;G"], ["", "", "INT,NMD", "ENST00000467505.5", "c.138-17382A&gt;G"], ["", "p.Ile101Val", "MIS", "ENST00000650461.1", "c.301A&gt;G"]]}</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>rs1555282783</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0491803278688524</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Low VAF Variants</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>123195593</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CTTTTTTTTTTTTTTTTTTTTTTTTTA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CTTTTTTTTTTTTTTTTTTATTTA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>STAG2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c.1535-9_1535-6delinsA</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0203046</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>394</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NOCALL</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>./.</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>8.353999999999999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.021484375</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>44.7625</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>4409.11</v>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>ENST00000371145.7</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.1535-9_1535-6delinsA"], ["", "", "INT,PTR", "ENST00000466748.5", ""], ["", "", "INT,PTR", "ENST00000469481.1", ""], ["", "", "INT,PTR", "ENST00000471107.1", ""], ["", "", "INT,PTR", "ENST00000483575.5", ""]]}</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.114754098360655</v>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>1990-21_LOD_1-8; 3899-22_LOD_1-8; 5331-21_L3219563; 5331-21_LOD_1-4; 5710-21_LOD_1-4; 6102-21_LOD_1-10; 6377-21</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>Low VAF Variants</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>123195593</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CTTTTTTTTTTTTTTTTTTTTTTTTTA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CTTTTTTTTTTTTTTTTTTTTATTTTA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STAG2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c.1535-7T&gt;A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0152284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>394</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NOCALL</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>./.</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>7.801</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>44.7625</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>4409.11</v>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>ENST00000371145.7</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.1535-7T&gt;A"], ["", "", "INT,PTR", "ENST00000466748.5", ""], ["", "", "INT,PTR", "ENST00000469481.1", ""], ["", "", "INT,PTR", "ENST00000471107.1", ""], ["", "", "INT,PTR", "ENST00000483575.5", ""]]}</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.0327868852459016</v>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>3899-22_LOD_1-8; 6815-21_L5309745</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>Low VAF Variants</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4563,130 +4841,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chrX</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123195593</v>
+        <v>170837551</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CTTTTTTTTTTTTTTTTTTTTTTTTTA</t>
+          <t>GTGGAGG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CTTTTTTTTTTTTTTTTTTATTTA</t>
+          <t>GCTTATGGCCC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>STAG2</t>
+          <t>NPM1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c.1535-9_1535-6delinsA</t>
+          <t>c.868_873delinsCTTATGGCCC</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p.Trp290LeufsTer10</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0203046</v>
+        <v>0.342007</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>1196</v>
       </c>
       <c r="K2" t="n">
-        <v>394</v>
+        <v>3497</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NOCALL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>./.</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>8.353999999999999</v>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>COSV51555426</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
+        </is>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>854</v>
       </c>
       <c r="Z2" t="n">
+        <v>342</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1138</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1163</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.54742408690555</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.69165669743211e-06</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.713689482470784</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.06994647850926e-51</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>13.8208</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.653569</v>
+      </c>
+      <c r="BE2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.021484375</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>44.7625</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
       <c r="BG2" t="inlineStr">
         <is>
           <t>complex</t>
         </is>
       </c>
       <c r="BH2" t="n">
-        <v>4409.11</v>
+        <v>12082.8</v>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>FSI</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>ENST00000371145.7</t>
+          <t>ENST00000296930.9</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.1535-9_1535-6delinsA"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.1535-9_1535-6delinsA"], ["", "", "INT,PTR", "ENST00000466748.5", ""], ["", "", "INT,PTR", "ENST00000469481.1", ""], ["", "", "INT,PTR", "ENST00000471107.1", ""], ["", "", "INT,PTR", "ENST00000483575.5", ""]]}</t>
+          <t>{"NPM1": [["P06748", "p.Trp290LeufsTer10", "CSS,FSI", "ENST00000296930.9", "c.868_873delinsCTTATGGCCC"], ["P06748", "p.Trp261LeufsTer10", "CSS,FSI", "ENST00000351986.10", "c.781_786delinsCTTATGGCCC"], ["P06748", "p.Trp290LeufsTer10", "CSS,FSI", "ENST00000517671.5", "c.868_873delinsCTTATGGCCC"]]}</t>
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.114754098360655</v>
+        <v>0.0491803278688524</v>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>1990-21_LOD_1-8; 3899-22_LOD_1-8; 5331-21_L3219563; 5331-21_LOD_1-4; 5710-21_LOD_1-4; 6102-21_LOD_1-10; 6377-21</t>
+          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>Low VAF Variants</t>
+          <t>FLT3 ITDs</t>
         </is>
       </c>
     </row>
@@ -4697,16 +4995,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123195593</v>
+        <v>123202356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CTTTTTTTTTTTTTTTTTTTTTTTTTA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CTTTTTTTTTTTTTTTTTTTTATTTTA</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4716,69 +5014,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c.1535-7T&gt;A</t>
+          <t>c.2266-58A&gt;C</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0152284</v>
+        <v>0.995076</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2425</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>2437</v>
       </c>
       <c r="L3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NOCALL</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>./.</t>
-        </is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0154843</v>
       </c>
       <c r="V3" t="n">
-        <v>7.801</v>
+        <v>0.167</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>1215</v>
       </c>
       <c r="Z3" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.557849343976511</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.386541733084298</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.501030078285949</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.935289701508744</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2347</v>
+      </c>
+      <c r="AH3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0703125</v>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.5034</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.7568</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.0137</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.5034</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.7568</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1.0137</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
       </c>
       <c r="BB3" t="n">
         <v>1</v>
       </c>
       <c r="BC3" t="n">
-        <v>44.7625</v>
+        <v>67.0046</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.5</v>
+        <v>0.500816</v>
       </c>
       <c r="BE3" t="n">
-        <v>1</v>
+        <v>0.288</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
@@ -4786,7 +5142,7 @@
         </is>
       </c>
       <c r="BH3" t="n">
-        <v>4409.11</v>
+        <v>40822.6</v>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
@@ -4800,585 +5156,26 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.1535-7T&gt;A"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.1535-7T&gt;A"], ["", "", "INT,PTR", "ENST00000466748.5", ""], ["", "", "INT,PTR", "ENST00000469481.1", ""], ["", "", "INT,PTR", "ENST00000471107.1", ""], ["", "", "INT,PTR", "ENST00000483575.5", ""]]}</t>
+          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.2266-58A&gt;C"], ["", "", "INT,PTR", "ENST00000469481.1", ""]]}</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>rs182757912</t>
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0327868852459016</v>
+        <v>0.0491803278688524</v>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>3899-22_LOD_1-8; 6815-21_L5309745</t>
+          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
-        <is>
-          <t>Low VAF Variants</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BR2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Original Input: Chrom</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Original Input: Pos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Original Input: Reference allele</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Original Input: Alternate allele</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: Gene</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: cDNA change</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: Protein Change</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: RefSeq</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>VCF: AF</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>VCF: FAO</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>VCF: FDP</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>VCF: HRUN</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>VCF: Filter</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>VCF: Genotype</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>COSMIC: ID</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>COSMIC: Variant Count</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>COSMIC: Variant Count (Tissue)</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>ClinVar: ClinVar ID</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>ClinVar: Clinical Significance</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>gnomAD3: Global AF</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>PhyloP: Vert Score</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>CADD: Phred</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>PolyPhen-2: HDIV Prediction</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>SIFT: Prediction</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>VCF: FSAF</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>VCF: FSAR</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>VCF: FSRF</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>VCF: FSRR</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>VCF: Fisher Odds Ratio</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>VCF: Fisher P Value</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>VCF: Binom Proportion</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>VCF: Binom P Value</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Read Depth</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Start Reads</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Stop Reads</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Reference Forward Read Depth</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Reference Reverse Read Depth</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Reference Forward Read Depth</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Reference Reverse Read Depth</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Forward Read Depth</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Reverse Read Depth</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Binomial Proportion</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Binomial P Value</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Fishers Odds Ratio</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered Variant Fishers P Value</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Filtered VAF</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Forward Read Depth</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Reverse Read Depth</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Binomial Proportion</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Binomial P Value</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Fishers Odds Ratio</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered Variant Fishers P Value</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Mpileup Qual: Unfiltered VAF</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>VCF: LEN</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>VCF: QD</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>VCF: STB</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>VCF: STBP</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>VCF: SVTYPE</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>VCF: TYPE</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>VCF: QUAL</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: Coding</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: Sequence Ontology</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: Transcript</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Variant Annotation: All Mappings</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>UniProt (GENE): Accession Number</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>dbSNP: rsID</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>MDL: Sample Count</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>MDL: Variant Frequency</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>MDL: Sample List</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Disposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>123202356</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>STAG2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>c.2266-58A&gt;C</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.995076</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2425</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0154843</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1215</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1210</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.557849343976511</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.386541733084298</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.501030078285949</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.935289701508744</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2347</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1180</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1164</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.5034</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.7568</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.0137</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1180</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1164</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.5034</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.7568</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.0137</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>67.0046</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.500816</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH2" t="n">
-        <v>40822.6</v>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>ENST00000371145.7</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>{"STAG2": [["Q8N3U4", "", "INT", "ENST00000218089.13", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371144.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371145.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371157.7", "c.2266-58A&gt;C"], ["Q8N3U4", "", "INT", "ENST00000371160.5", "c.2266-58A&gt;C"], ["", "", "INT,PTR", "ENST00000469481.1", ""]]}</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>rs182757912</t>
-        </is>
-      </c>
-      <c r="BO2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.0491803278688524</v>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
         <is>
           <t>FLT3 ITDs</t>
         </is>
@@ -5395,7 +5192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5758,182 +5555,385 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>chr17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1577985</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PRPF8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c.3061-11T&gt;G</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5015810000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3162</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>321895</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Benign</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0105789</v>
+      </c>
+      <c r="V2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>624</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>962</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>606</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.03820775617108</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.609767143846347</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.393576826196473</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.09166052501522e-17</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3103</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>621</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>961</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.3927</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.6466</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>621</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>961</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.3927</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.6466</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>22.1865</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.504669</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>17538.5</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000304992.11</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"PRPF8": [["Q6P2Q9", "", "INT", "ENST00000304992.11", "c.3061-11T&gt;G"], ["Q6P2Q9", "", "INT", "ENST00000572621.5", "c.3061-11T&gt;G"]]}</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>rs11652160</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0655737704918032</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>1002-23_N0137691; 1990-21_LOD_1-10; 1990-21_LOD_1-4; 1990-21_LOD_1-8</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Hotspot Exceptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>chrX</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>133547499</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>GT</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>PHF6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>c.419-17del</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>0.00927357</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>2588</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>NOCALL</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>./.</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y3" t="n">
         <v>11</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z3" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA3" t="n">
         <v>1648</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB3" t="n">
         <v>916</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC3" t="n">
         <v>0.476652516676773</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD3" t="n">
         <v>0.08491885718164049</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE3" t="n">
         <v>0.461538461538461</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF3" t="n">
         <v>0.845018982887268</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG3" t="n">
         <v>2571</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP3" t="n">
         <v>0.5</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
         <v>67</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>47</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>0.5862000000000001</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>0.07729999999999999</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>1.4167</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.0827242</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>0.678372</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE3" t="n">
         <v>0.114</v>
       </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>del</t>
         </is>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH3" t="n">
         <v>53.5226</v>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>INT</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>ENST00000370803.7</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>{"PHF6": [["Q8IWS0", "", "INT", "ENST00000332070.7", "c.419-17del"], ["", "", "INT", "ENST00000370799.5", "c.419-14del"], ["Q8IWS0", "", "INT", "ENST00000370800.4", "c.419-14del"], ["Q8IWS0", "", "INT", "ENST00000370803.7", "c.419-17del"], ["", "", "INT", "ENST00000625464.2", "c.419-14del"]]}</t>
         </is>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO3" t="n">
         <v>2</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP3" t="n">
         <v>0.0327868852459016</v>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>5714-21_L4114728; 6815-21_L5309745</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>Hotspot Exceptions</t>
         </is>
